--- a/ResultadoEleicoesDistritos/VISEU_CINFÃES.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_CINFÃES.xlsx
@@ -597,25 +597,25 @@
         <v>4797</v>
       </c>
       <c r="H2" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I2" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J2" t="n">
-        <v>2065</v>
+        <v>1999</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -624,37 +624,37 @@
         <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="S2" t="n">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="T2" t="n">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="U2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V2" t="n">
-        <v>3063</v>
+        <v>2965</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3007</v>
+        <v>3147</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
